--- a/Code/Data/DJI/Compared Returns/Manual Recurrence/input 30/DJI_returns_compared_semester.xlsx
+++ b/Code/Data/DJI/Compared Returns/Manual Recurrence/input 30/DJI_returns_compared_semester.xlsx
@@ -501,13 +501,13 @@
         <v>0.03329497729672374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07611958042947067</v>
+        <v>0.04959097317011259</v>
       </c>
       <c r="H2" t="n">
-        <v>128.621812086236</v>
+        <v>48.94430690899552</v>
       </c>
       <c r="I2" t="n">
-        <v>-6.607878631719318</v>
+        <v>-43.71818306430923</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.05046469789391711</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05210105488581632</v>
+        <v>0.05445830050718938</v>
       </c>
       <c r="H3" t="n">
-        <v>3.242577604128389</v>
+        <v>7.913656040639156</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.0486758219816957</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01992158432757138</v>
+        <v>0.03733145407118726</v>
       </c>
       <c r="H4" t="n">
-        <v>-59.07293700132523</v>
+        <v>-23.30596063642117</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.07065454528020997</v>
       </c>
       <c r="G5" t="n">
-        <v>0.006714182713100353</v>
+        <v>0.02794917591317161</v>
       </c>
       <c r="H5" t="n">
-        <v>-90.49716803572584</v>
+        <v>-60.44249410660342</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.1176256789339563</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.09472345941455447</v>
+        <v>-0.08272427516292555</v>
       </c>
       <c r="H6" t="n">
-        <v>-19.47042493353923</v>
+        <v>29.67158539473932</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.1250334703246129</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.03789384689764943</v>
+        <v>-0.06046962435672904</v>
       </c>
       <c r="H7" t="n">
-        <v>-69.69303755284955</v>
+        <v>51.63725025008319</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.1991787235611737</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.244749983785027</v>
+        <v>-0.2533160492500403</v>
       </c>
       <c r="H8" t="n">
-        <v>22.87958242179266</v>
+        <v>-27.18027544354628</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3020768871865665</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2709072521881241</v>
+        <v>-0.3236281742840208</v>
       </c>
       <c r="H9" t="n">
-        <v>-10.31844418444091</v>
+        <v>-7.134371417216025</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.001272715036535196</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.008382594563674153</v>
+        <v>-0.02721769689370824</v>
       </c>
       <c r="H10" t="n">
-        <v>-758.6387622554295</v>
+        <v>-2238.553887742612</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.02056338450408789</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09152483359418004</v>
+        <v>0.04822193355114865</v>
       </c>
       <c r="H11" t="n">
-        <v>-545.086428141172</v>
+        <v>334.5038752816317</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2119112776748354</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1928204008324091</v>
+        <v>0.219789198589467</v>
       </c>
       <c r="H12" t="n">
-        <v>-9.008900824863158</v>
+        <v>3.717556234416075</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.234996589393344</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2578761918153017</v>
+        <v>0.2243878091252279</v>
       </c>
       <c r="H13" t="n">
-        <v>9.736142333394106</v>
+        <v>-4.514440101238583</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.09105026933242721</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.08745653059078853</v>
+        <v>-0.08616063525714303</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.946983098444041</v>
+        <v>5.370257673189288</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.07096873214407551</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0782689170675674</v>
+        <v>-0.0635282682746504</v>
       </c>
       <c r="H15" t="n">
-        <v>10.28648068373491</v>
+        <v>10.48414371320602</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1914532789110739</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1807960554998506</v>
+        <v>0.1651039465694912</v>
       </c>
       <c r="H16" t="n">
-        <v>-5.566487798923183</v>
+        <v>-13.76280024633133</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1738696232982535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1752733139666575</v>
+        <v>0.1844963348745214</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8073236956383767</v>
+        <v>6.111885086470219</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.05422985625601025</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07188902795705758</v>
+        <v>0.0390858782616023</v>
       </c>
       <c r="H18" t="n">
-        <v>32.56355985470675</v>
+        <v>-27.92553593156455</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.0860396012945818</v>
       </c>
       <c r="G19" t="n">
-        <v>0.067864376143201</v>
+        <v>0.05386435912368127</v>
       </c>
       <c r="H19" t="n">
-        <v>-21.12425543343999</v>
+        <v>-37.39585224336309</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.01272890770458397</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0005890264813448558</v>
+        <v>-0.002236996606943722</v>
       </c>
       <c r="H20" t="n">
-        <v>-104.627470754091</v>
+        <v>-117.5741442931362</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.05387378935951025</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.06221329851166396</v>
+        <v>-0.05071827082556495</v>
       </c>
       <c r="H21" t="n">
-        <v>15.47971518487877</v>
+        <v>5.857242587648537</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.06527274005722783</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06121875695508546</v>
+        <v>0.07613125675983745</v>
       </c>
       <c r="H22" t="n">
-        <v>-6.210836405194636</v>
+        <v>16.63560728887653</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.05767338901883199</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06024170919446251</v>
+        <v>0.04567395999044716</v>
       </c>
       <c r="H23" t="n">
-        <v>4.453215285808667</v>
+        <v>-20.80583304106973</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.03239411027712896</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04861981635106979</v>
+        <v>0.06004556024467041</v>
       </c>
       <c r="H24" t="n">
-        <v>50.08844489054102</v>
+        <v>85.35949816489958</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.02943213039151765</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07175160321772003</v>
+        <v>0.02963942156446982</v>
       </c>
       <c r="H25" t="n">
-        <v>143.786644946364</v>
+        <v>0.7043023056595086</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.1132914143099023</v>
       </c>
       <c r="G26" t="n">
-        <v>0.09767508793485122</v>
+        <v>0.1124631730537966</v>
       </c>
       <c r="H26" t="n">
-        <v>-13.7842099246228</v>
+        <v>-0.7310715124802768</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.09018765746528551</v>
       </c>
       <c r="G27" t="n">
-        <v>0.146503398653436</v>
+        <v>0.1326706872921423</v>
       </c>
       <c r="H27" t="n">
-        <v>62.44284724861294</v>
+        <v>47.10514833275173</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.11746711685605</v>
       </c>
       <c r="G28" t="n">
-        <v>0.09668537603213739</v>
+        <v>0.1059480505173626</v>
       </c>
       <c r="H28" t="n">
-        <v>-17.69153902821977</v>
+        <v>-9.80620504443251</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.119627664509486</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1279303729710278</v>
+        <v>0.1265292414148519</v>
       </c>
       <c r="H29" t="n">
-        <v>6.94045854325228</v>
+        <v>5.769214782938956</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.0672283335668115</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09292327215164135</v>
+        <v>0.07546133518422544</v>
       </c>
       <c r="H30" t="n">
-        <v>38.2204008660935</v>
+        <v>12.24632707760336</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06861766206541092</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1001820790154328</v>
+        <v>0.06937057928091164</v>
       </c>
       <c r="H31" t="n">
-        <v>46.00042612925602</v>
+        <v>1.09726445471574</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.04366655595970735</v>
       </c>
       <c r="G32" t="n">
-        <v>0.04211656935536368</v>
+        <v>0.06208062793028747</v>
       </c>
       <c r="H32" t="n">
-        <v>-3.549596642734762</v>
+        <v>42.16973737881097</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.0543384101864899</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03660277493551038</v>
+        <v>0.0464323190562861</v>
       </c>
       <c r="H33" t="n">
-        <v>-32.63922369114345</v>
+        <v>-14.54972845740246</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.01909861840477803</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.02109922164532953</v>
+        <v>-0.02025180752733568</v>
       </c>
       <c r="H34" t="n">
-        <v>10.47512023200065</v>
+        <v>-6.038076148320496</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.01395266856481344</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01137090410831401</v>
+        <v>0.01988389647123248</v>
       </c>
       <c r="H35" t="n">
-        <v>-18.50373241868769</v>
+        <v>42.50963089151789</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0154589174471258</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.02829541807956204</v>
+        <v>-0.02555369010917101</v>
       </c>
       <c r="H36" t="n">
-        <v>-283.0362195563886</v>
+        <v>-265.3006440882578</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01252367146681341</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.01270125205015776</v>
+        <v>0.0205369198669224</v>
       </c>
       <c r="H37" t="n">
-        <v>-201.4179594523453</v>
+        <v>63.98481804112611</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.0717427997050479</v>
       </c>
       <c r="G38" t="n">
-        <v>0.05703496082512083</v>
+        <v>0.05535684376067237</v>
       </c>
       <c r="H38" t="n">
-        <v>-20.50078745239185</v>
+        <v>-22.8398612986142</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.04306250594694232</v>
       </c>
       <c r="G39" t="n">
-        <v>0.04114355873520888</v>
+        <v>0.04326744393488412</v>
       </c>
       <c r="H39" t="n">
-        <v>-4.456190297187516</v>
+        <v>0.475908179134549</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.04472976650449433</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04414271094334815</v>
+        <v>0.04076673964112752</v>
       </c>
       <c r="H40" t="n">
-        <v>-1.312449420202529</v>
+        <v>-8.859931926916307</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.01235932223995685</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03089307980602505</v>
+        <v>0.05433945555651873</v>
       </c>
       <c r="H41" t="n">
-        <v>149.9577177958013</v>
+        <v>339.6637170025631</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.05227897835473393</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07510223934123975</v>
+        <v>0.06634613467839395</v>
       </c>
       <c r="H42" t="n">
-        <v>43.65666985999763</v>
+        <v>26.90786386108906</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.04989988528832228</v>
       </c>
       <c r="G43" t="n">
-        <v>0.05356921221568413</v>
+        <v>0.09292681442687158</v>
       </c>
       <c r="H43" t="n">
-        <v>7.353377480049146</v>
+        <v>86.22650911908727</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.1317508659970314</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1299170074490603</v>
+        <v>0.1144092726927911</v>
       </c>
       <c r="H44" t="n">
-        <v>-1.391913847467558</v>
+        <v>-13.16241314469314</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.179426686261951</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1092967788850796</v>
+        <v>0.1108731411732484</v>
       </c>
       <c r="H45" t="n">
-        <v>-39.08555011403733</v>
+        <v>-38.20699502225605</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.04392984202713655</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.02359511887039752</v>
+        <v>-0.02175927634208649</v>
       </c>
       <c r="H46" t="n">
-        <v>-46.28908782366612</v>
+        <v>50.46812067148967</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-0.002619566790288774</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.04102300314842316</v>
+        <v>-0.0323895792508383</v>
       </c>
       <c r="H47" t="n">
-        <v>1466.022416397365</v>
+        <v>-1136.447926081234</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.01449182075425856</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01198801810091159</v>
+        <v>0.007486869743684712</v>
       </c>
       <c r="H48" t="n">
-        <v>-182.7226495841718</v>
+        <v>-48.33727334445106</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.005558818437472066</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.001516579061604858</v>
+        <v>0.0151120976631906</v>
       </c>
       <c r="H49" t="n">
-        <v>-72.71760035583139</v>
+        <v>371.858090584858</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.1429314706283479</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1127944626695023</v>
+        <v>0.1044994288770426</v>
       </c>
       <c r="H50" t="n">
-        <v>-21.08493519751729</v>
+        <v>-26.88843932155204</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1309652145907328</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1411109434183725</v>
+        <v>0.1450170064201344</v>
       </c>
       <c r="H51" t="n">
-        <v>7.746888255286087</v>
+        <v>10.72940770823272</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.06195270431465436</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06742631409911787</v>
+        <v>0.05843761413692239</v>
       </c>
       <c r="H52" t="n">
-        <v>8.835142622125652</v>
+        <v>-5.673828473861326</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06118162839927899</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05159367561988671</v>
+        <v>0.05369555616323525</v>
       </c>
       <c r="H53" t="n">
-        <v>-15.67129386753176</v>
+        <v>-12.23581724106572</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.08930693985091673</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1204400240206013</v>
+        <v>-0.10547504743728</v>
       </c>
       <c r="H54" t="n">
-        <v>34.86076694784991</v>
+        <v>-18.1039767047816</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.1037866104266609</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.09579030586110268</v>
+        <v>-0.07403133489344066</v>
       </c>
       <c r="H55" t="n">
-        <v>-7.704562787710152</v>
+        <v>28.66966693574247</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1551236246950908</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1440084810143961</v>
+        <v>0.1438920580129243</v>
       </c>
       <c r="H56" t="n">
-        <v>-7.165345512356685</v>
+        <v>-7.240397266530583</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.1394860975010162</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1666692160454273</v>
+        <v>0.1785524385148068</v>
       </c>
       <c r="H57" t="n">
-        <v>19.48804865245661</v>
+        <v>28.00733672651927</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>

--- a/Code/Data/DJI/Compared Returns/Manual Recurrence/input 30/DJI_returns_compared_semester.xlsx
+++ b/Code/Data/DJI/Compared Returns/Manual Recurrence/input 30/DJI_returns_compared_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.03329497729672374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04959097317011259</v>
+        <v>0.07147868145859068</v>
       </c>
       <c r="H2" t="n">
-        <v>48.94430690899552</v>
+        <v>114.6830761336013</v>
       </c>
       <c r="I2" t="n">
-        <v>-43.71818306430923</v>
+        <v>-47.92863797341975</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.05046469789391711</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05445830050718938</v>
+        <v>0.0449230761555611</v>
       </c>
       <c r="H3" t="n">
-        <v>7.913656040639156</v>
+        <v>-10.98118480765538</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.0486758219816957</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03733145407118726</v>
+        <v>0.03026286798604583</v>
       </c>
       <c r="H4" t="n">
-        <v>-23.30596063642117</v>
+        <v>-37.82772071640407</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.07065454528020997</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02794917591317161</v>
+        <v>0.02540116381037075</v>
       </c>
       <c r="H5" t="n">
-        <v>-60.44249410660342</v>
+        <v>-64.04879019512209</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.1176256789339563</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.08272427516292555</v>
+        <v>-0.07779056171429792</v>
       </c>
       <c r="H6" t="n">
-        <v>29.67158539473932</v>
+        <v>33.86600407384236</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.1250334703246129</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06046962435672904</v>
+        <v>-0.07254255638893733</v>
       </c>
       <c r="H7" t="n">
-        <v>51.63725025008319</v>
+        <v>41.98149007573591</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.1991787235611737</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2533160492500403</v>
+        <v>-0.295217284720253</v>
       </c>
       <c r="H8" t="n">
-        <v>-27.18027544354628</v>
+        <v>-48.21727915611579</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3020768871865665</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3236281742840208</v>
+        <v>-0.221924330262072</v>
       </c>
       <c r="H9" t="n">
-        <v>-7.134371417216025</v>
+        <v>26.53382642777011</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.001272715036535196</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02721769689370824</v>
+        <v>-0.03342811851076076</v>
       </c>
       <c r="H10" t="n">
-        <v>-2238.553887742612</v>
+        <v>-2726.520277607825</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.02056338450408789</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04822193355114865</v>
+        <v>0.04347243055808837</v>
       </c>
       <c r="H11" t="n">
-        <v>334.5038752816317</v>
+        <v>311.4069819073134</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2119112776748354</v>
       </c>
       <c r="G12" t="n">
-        <v>0.219789198589467</v>
+        <v>0.1837474491125869</v>
       </c>
       <c r="H12" t="n">
-        <v>3.717556234416075</v>
+        <v>-13.29038684079105</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.234996589393344</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2243878091252279</v>
+        <v>0.23250959624587</v>
       </c>
       <c r="H13" t="n">
-        <v>-4.514440101238583</v>
+        <v>-1.058310315862158</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.09105026933242721</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.08616063525714303</v>
+        <v>-0.06580521124171784</v>
       </c>
       <c r="H14" t="n">
-        <v>5.370257673189288</v>
+        <v>27.72650567187113</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.07096873214407551</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0635282682746504</v>
+        <v>-0.06715710993832892</v>
       </c>
       <c r="H15" t="n">
-        <v>10.48414371320602</v>
+        <v>5.370847259901038</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1914532789110739</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1651039465694912</v>
+        <v>0.1907936063235357</v>
       </c>
       <c r="H16" t="n">
-        <v>-13.76280024633133</v>
+        <v>-0.3445606109700473</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1738696232982535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1844963348745214</v>
+        <v>0.1696943861460263</v>
       </c>
       <c r="H17" t="n">
-        <v>6.111885086470219</v>
+        <v>-2.401360900785445</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.05422985625601025</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0390858782616023</v>
+        <v>0.02260558681381364</v>
       </c>
       <c r="H18" t="n">
-        <v>-27.92553593156455</v>
+        <v>-58.31523744577826</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.0860396012945818</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05386435912368127</v>
+        <v>0.07478950884487799</v>
       </c>
       <c r="H19" t="n">
-        <v>-37.39585224336309</v>
+        <v>-13.07548184839422</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.01272890770458397</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.002236996606943722</v>
+        <v>0.007373700479570815</v>
       </c>
       <c r="H20" t="n">
-        <v>-117.5741442931362</v>
+        <v>-42.0712236218401</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.05387378935951025</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.05071827082556495</v>
+        <v>-0.03725811028716507</v>
       </c>
       <c r="H21" t="n">
-        <v>5.857242587648537</v>
+        <v>30.84186070793264</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.06527274005722783</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07613125675983745</v>
+        <v>0.06924214092562987</v>
       </c>
       <c r="H22" t="n">
-        <v>16.63560728887653</v>
+        <v>6.081253621223612</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.05767338901883199</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04567395999044716</v>
+        <v>0.07765514047267943</v>
       </c>
       <c r="H23" t="n">
-        <v>-20.80583304106973</v>
+        <v>34.64639722719058</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.03239411027712896</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06004556024467041</v>
+        <v>0.03790848929130086</v>
       </c>
       <c r="H24" t="n">
-        <v>85.35949816489958</v>
+        <v>17.02278274351985</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.02943213039151765</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02963942156446982</v>
+        <v>0.04305493236069727</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7043023056595086</v>
+        <v>46.28547708903096</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.1132914143099023</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1124631730537966</v>
+        <v>0.1073982701158028</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.7310715124802768</v>
+        <v>-5.201757105776029</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.09018765746528551</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1326706872921423</v>
+        <v>0.1398827576158806</v>
       </c>
       <c r="H27" t="n">
-        <v>47.10514833275173</v>
+        <v>55.10188594234574</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.11746711685605</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1059480505173626</v>
+        <v>0.1131630080145592</v>
       </c>
       <c r="H28" t="n">
-        <v>-9.80620504443251</v>
+        <v>-3.664096775921789</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.119627664509486</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1265292414148519</v>
+        <v>0.1439690968699943</v>
       </c>
       <c r="H29" t="n">
-        <v>5.769214782938956</v>
+        <v>20.34766160512822</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.0672283335668115</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07546133518422544</v>
+        <v>0.07030092853317786</v>
       </c>
       <c r="H30" t="n">
-        <v>12.24632707760336</v>
+        <v>4.570386923710991</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06861766206541092</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06937057928091164</v>
+        <v>0.07086164524611151</v>
       </c>
       <c r="H31" t="n">
-        <v>1.09726445471574</v>
+        <v>3.270270529709203</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.04366655595970735</v>
       </c>
       <c r="G32" t="n">
-        <v>0.06208062793028747</v>
+        <v>0.05320511211118779</v>
       </c>
       <c r="H32" t="n">
-        <v>42.16973737881097</v>
+        <v>21.84407710166562</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.0543384101864899</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0464323190562861</v>
+        <v>0.0482339694822452</v>
       </c>
       <c r="H33" t="n">
-        <v>-14.54972845740246</v>
+        <v>-11.23411723547709</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.01909861840477803</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.02025180752733568</v>
+        <v>-0.007082817274089428</v>
       </c>
       <c r="H34" t="n">
-        <v>-6.038076148320496</v>
+        <v>62.91450447369809</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.01395266856481344</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01988389647123248</v>
+        <v>0.01344832753129484</v>
       </c>
       <c r="H35" t="n">
-        <v>42.50963089151789</v>
+        <v>-3.614656444936093</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0154589174471258</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.02555369010917101</v>
+        <v>-0.00788876241927247</v>
       </c>
       <c r="H36" t="n">
-        <v>-265.3006440882578</v>
+        <v>-151.0304970982246</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01252367146681341</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0205369198669224</v>
+        <v>-0.006905272940685193</v>
       </c>
       <c r="H37" t="n">
-        <v>63.98481804112611</v>
+        <v>-155.1377681775152</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.0717427997050479</v>
       </c>
       <c r="G38" t="n">
-        <v>0.05535684376067237</v>
+        <v>0.0372065149879895</v>
       </c>
       <c r="H38" t="n">
-        <v>-22.8398612986142</v>
+        <v>-48.13902560123869</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.04306250594694232</v>
       </c>
       <c r="G39" t="n">
-        <v>0.04326744393488412</v>
+        <v>0.0663204996857413</v>
       </c>
       <c r="H39" t="n">
-        <v>0.475908179134549</v>
+        <v>54.00984737733414</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.04472976650449433</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04076673964112752</v>
+        <v>0.03232882613625514</v>
       </c>
       <c r="H40" t="n">
-        <v>-8.859931926916307</v>
+        <v>-27.72413392096107</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.01235932223995685</v>
       </c>
       <c r="G41" t="n">
-        <v>0.05433945555651873</v>
+        <v>0.0296526909029519</v>
       </c>
       <c r="H41" t="n">
-        <v>339.6637170025631</v>
+        <v>139.9216585444044</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.05227897835473393</v>
       </c>
       <c r="G42" t="n">
-        <v>0.06634613467839395</v>
+        <v>0.06117008341610763</v>
       </c>
       <c r="H42" t="n">
-        <v>26.90786386108906</v>
+        <v>17.0070367501139</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.04989988528832228</v>
       </c>
       <c r="G43" t="n">
-        <v>0.09292681442687158</v>
+        <v>0.07871099396561926</v>
       </c>
       <c r="H43" t="n">
-        <v>86.22650911908727</v>
+        <v>57.73782546958969</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.1317508659970314</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1144092726927911</v>
+        <v>0.1215498708675968</v>
       </c>
       <c r="H44" t="n">
-        <v>-13.16241314469314</v>
+        <v>-7.742639907706141</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.179426686261951</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1108731411732484</v>
+        <v>0.1546971482643252</v>
       </c>
       <c r="H45" t="n">
-        <v>-38.20699502225605</v>
+        <v>-13.78253063288607</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.04392984202713655</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.02175927634208649</v>
+        <v>-0.05368190259391904</v>
       </c>
       <c r="H46" t="n">
-        <v>50.46812067148967</v>
+        <v>-22.19917057921221</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-0.002619566790288774</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.0323895792508383</v>
+        <v>-0.01169006436056031</v>
       </c>
       <c r="H47" t="n">
-        <v>-1136.447926081234</v>
+        <v>-346.2594503754428</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.01449182075425856</v>
       </c>
       <c r="G48" t="n">
-        <v>0.007486869743684712</v>
+        <v>0.01187591370294495</v>
       </c>
       <c r="H48" t="n">
-        <v>-48.33727334445106</v>
+        <v>-18.05092055492683</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.005558818437472066</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0151120976631906</v>
+        <v>-0.001308095717333042</v>
       </c>
       <c r="H49" t="n">
-        <v>371.858090584858</v>
+        <v>76.46809781526318</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.1429314706283479</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1044994288770426</v>
+        <v>0.09705183841290542</v>
       </c>
       <c r="H50" t="n">
-        <v>-26.88843932155204</v>
+        <v>-32.09904159927049</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1309652145907328</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1450170064201344</v>
+        <v>0.1465823103934866</v>
       </c>
       <c r="H51" t="n">
-        <v>10.72940770823272</v>
+        <v>11.92461360946671</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.06195270431465436</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05843761413692239</v>
+        <v>0.0561697084943592</v>
       </c>
       <c r="H52" t="n">
-        <v>-5.673828473861326</v>
+        <v>-9.334533309351031</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06118162839927899</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05369555616323525</v>
+        <v>0.04773645594918585</v>
       </c>
       <c r="H53" t="n">
-        <v>-12.23581724106572</v>
+        <v>-21.97583294506032</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.08930693985091673</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.10547504743728</v>
+        <v>-0.1433159341703481</v>
       </c>
       <c r="H54" t="n">
-        <v>-18.1039767047816</v>
+        <v>-60.47569697225157</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.1037866104266609</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.07403133489344066</v>
+        <v>-0.09126890292579742</v>
       </c>
       <c r="H55" t="n">
-        <v>28.66966693574247</v>
+        <v>12.06100425614045</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1551236246950908</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1438920580129243</v>
+        <v>0.1632268906029936</v>
       </c>
       <c r="H56" t="n">
-        <v>-7.240397266530583</v>
+        <v>5.223747139631691</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,14 +2318,14 @@
         <v>0.1394860975010162</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1785524385148068</v>
+        <v>0.1854674612244922</v>
       </c>
       <c r="H57" t="n">
-        <v>28.00733672651927</v>
+        <v>32.96483631506072</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>